--- a/data/Преподаватели.xlsx
+++ b/data/Преподаватели.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\лабэксель\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CE3AC-2C11-4E1C-9173-1BE13852360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="528" windowWidth="17916" windowHeight="9468"/>
+    <workbookView xWindow="3503" yWindow="1612" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -1404,7 +1410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1908,24 +1914,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1956,6 +1962,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2004,7 +2013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2037,9 +2046,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2072,6 +2098,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2247,19 +2290,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B611"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2270,7 +2313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2303,7 +2346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2325,7 +2368,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2336,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2347,7 +2390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2380,7 +2423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2391,7 +2434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2402,7 +2445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2413,7 +2456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2424,7 +2467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2435,7 +2478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2446,7 +2489,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2457,7 +2500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2468,7 +2511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2479,7 +2522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2490,7 +2533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2501,7 +2544,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2512,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2523,7 +2566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2534,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2545,7 +2588,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2556,7 +2599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2567,7 +2610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2578,7 +2621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2589,7 +2632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2600,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2611,7 +2654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2622,7 +2665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2633,7 +2676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2644,7 +2687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2655,7 +2698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2666,7 +2709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2677,7 +2720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2688,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2699,7 +2742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2710,7 +2753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2721,7 +2764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2732,7 +2775,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2743,7 +2786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2754,7 +2797,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2765,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2776,7 +2819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2787,7 +2830,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2798,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2809,7 +2852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2820,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2831,7 +2874,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2842,7 +2885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2853,7 +2896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2864,7 +2907,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2875,7 +2918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2886,7 +2929,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2897,7 +2940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2908,7 +2951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2919,7 +2962,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2930,7 +2973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2941,7 +2984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2952,7 +2995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2963,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2974,7 +3017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2985,7 +3028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2996,7 +3039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3007,7 +3050,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -3018,7 +3061,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -3029,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3040,7 +3083,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -3051,7 +3094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -3062,7 +3105,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -3084,7 +3127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -3095,7 +3138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -3106,7 +3149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -3117,7 +3160,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -3128,7 +3171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3139,7 +3182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3150,7 +3193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3161,7 +3204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3172,7 +3215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -3183,7 +3226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -3194,7 +3237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -3205,7 +3248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -3216,7 +3259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -3227,7 +3270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -3238,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -3249,7 +3292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -3260,7 +3303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -3271,7 +3314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -3282,7 +3325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -3293,7 +3336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -3304,7 +3347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -3315,7 +3358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -3326,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -3337,7 +3380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -3348,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>89</v>
       </c>
@@ -3359,7 +3402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>93</v>
       </c>
@@ -3370,7 +3413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -3381,7 +3424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -3392,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -3403,7 +3446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -3414,7 +3457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -3425,7 +3468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>99</v>
       </c>
@@ -3436,7 +3479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>100</v>
       </c>
@@ -3447,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -3458,7 +3501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -3469,7 +3512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>102</v>
       </c>
@@ -3480,7 +3523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -3491,7 +3534,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -3502,7 +3545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -3513,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -3524,7 +3567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -3535,7 +3578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -3546,7 +3589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -3557,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +3611,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>70</v>
       </c>
@@ -3579,7 +3622,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>108</v>
       </c>
@@ -3590,7 +3633,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>109</v>
       </c>
@@ -3601,7 +3644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>110</v>
       </c>
@@ -3612,7 +3655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>97</v>
       </c>
@@ -3623,7 +3666,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>111</v>
       </c>
@@ -3634,7 +3677,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -3645,7 +3688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -3656,7 +3699,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -3667,7 +3710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>68</v>
       </c>
@@ -3678,7 +3721,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>115</v>
       </c>
@@ -3689,7 +3732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>116</v>
       </c>
@@ -3700,7 +3743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>117</v>
       </c>
@@ -3711,7 +3754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>118</v>
       </c>
@@ -3722,7 +3765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>44</v>
       </c>
@@ -3733,7 +3776,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>119</v>
       </c>
@@ -3744,7 +3787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>120</v>
       </c>
@@ -3755,7 +3798,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -3766,7 +3809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>122</v>
       </c>
@@ -3777,7 +3820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -3788,7 +3831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -3799,7 +3842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>97</v>
       </c>
@@ -3810,7 +3853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>64</v>
       </c>
@@ -3821,7 +3864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>124</v>
       </c>
@@ -3832,7 +3875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>125</v>
       </c>
@@ -3843,7 +3886,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>126</v>
       </c>
@@ -3854,7 +3897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>127</v>
       </c>
@@ -3865,7 +3908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>128</v>
       </c>
@@ -3876,7 +3919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>129</v>
       </c>
@@ -3887,7 +3930,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -3898,7 +3941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>130</v>
       </c>
@@ -3909,7 +3952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>131</v>
       </c>
@@ -3920,7 +3963,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>132</v>
       </c>
@@ -3931,7 +3974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>133</v>
       </c>
@@ -3942,7 +3985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>134</v>
       </c>
@@ -3953,7 +3996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>135</v>
       </c>
@@ -3964,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>75</v>
       </c>
@@ -3975,7 +4018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>136</v>
       </c>
@@ -3986,7 +4029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>137</v>
       </c>
@@ -3997,7 +4040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>138</v>
       </c>
@@ -4008,7 +4051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>139</v>
       </c>
@@ -4019,7 +4062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>140</v>
       </c>
@@ -4030,7 +4073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -4041,7 +4084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>141</v>
       </c>
@@ -4052,7 +4095,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>142</v>
       </c>
@@ -4063,7 +4106,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>143</v>
       </c>
@@ -4074,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -4085,7 +4128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>145</v>
       </c>
@@ -4096,7 +4139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -4107,7 +4150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>147</v>
       </c>
@@ -4118,7 +4161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>75</v>
       </c>
@@ -4129,7 +4172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>148</v>
       </c>
@@ -4140,7 +4183,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>149</v>
       </c>
@@ -4151,7 +4194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>150</v>
       </c>
@@ -4162,7 +4205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -4173,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>152</v>
       </c>
@@ -4184,7 +4227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>153</v>
       </c>
@@ -4195,7 +4238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>140</v>
       </c>
@@ -4206,7 +4249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>154</v>
       </c>
@@ -4217,7 +4260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>155</v>
       </c>
@@ -4228,7 +4271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>156</v>
       </c>
@@ -4239,7 +4282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>157</v>
       </c>
@@ -4250,7 +4293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>158</v>
       </c>
@@ -4261,7 +4304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>159</v>
       </c>
@@ -4272,7 +4315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>160</v>
       </c>
@@ -4283,7 +4326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>161</v>
       </c>
@@ -4294,7 +4337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>162</v>
       </c>
@@ -4305,7 +4348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>163</v>
       </c>
@@ -4316,7 +4359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>107</v>
       </c>
@@ -4327,7 +4370,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>164</v>
       </c>
@@ -4338,7 +4381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>165</v>
       </c>
@@ -4349,7 +4392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>162</v>
       </c>
@@ -4360,7 +4403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -4371,7 +4414,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>166</v>
       </c>
@@ -4382,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>167</v>
       </c>
@@ -4393,7 +4436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>168</v>
       </c>
@@ -4404,7 +4447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -4415,7 +4458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>65</v>
       </c>
@@ -4426,7 +4469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>169</v>
       </c>
@@ -4437,7 +4480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -4448,7 +4491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>171</v>
       </c>
@@ -4459,7 +4502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>172</v>
       </c>
@@ -4470,7 +4513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>99</v>
       </c>
@@ -4481,7 +4524,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>150</v>
       </c>
@@ -4492,7 +4535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>173</v>
       </c>
@@ -4503,7 +4546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>174</v>
       </c>
@@ -4514,7 +4557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>175</v>
       </c>
@@ -4525,7 +4568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>176</v>
       </c>
@@ -4536,7 +4579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>177</v>
       </c>
@@ -4547,7 +4590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>178</v>
       </c>
@@ -4558,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>179</v>
       </c>
@@ -4569,7 +4612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>180</v>
       </c>
@@ -4580,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>181</v>
       </c>
@@ -4591,7 +4634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>85</v>
       </c>
@@ -4602,7 +4645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>182</v>
       </c>
@@ -4613,7 +4656,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -4624,7 +4667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -4635,7 +4678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>185</v>
       </c>
@@ -4646,7 +4689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>161</v>
       </c>
@@ -4657,7 +4700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>186</v>
       </c>
@@ -4668,7 +4711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>187</v>
       </c>
@@ -4679,7 +4722,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>188</v>
       </c>
@@ -4690,7 +4733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>189</v>
       </c>
@@ -4701,7 +4744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>190</v>
       </c>
@@ -4712,7 +4755,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>99</v>
       </c>
@@ -4723,7 +4766,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>191</v>
       </c>
@@ -4734,7 +4777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -4745,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>193</v>
       </c>
@@ -4756,7 +4799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>194</v>
       </c>
@@ -4767,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>195</v>
       </c>
@@ -4778,7 +4821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>196</v>
       </c>
@@ -4789,7 +4832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>197</v>
       </c>
@@ -4800,7 +4843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>22</v>
       </c>
@@ -4811,7 +4854,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>198</v>
       </c>
@@ -4822,7 +4865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -4833,7 +4876,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>93</v>
       </c>
@@ -4844,7 +4887,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>199</v>
       </c>
@@ -4855,7 +4898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>200</v>
       </c>
@@ -4866,7 +4909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>201</v>
       </c>
@@ -4877,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>110</v>
       </c>
@@ -4888,7 +4931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>202</v>
       </c>
@@ -4899,7 +4942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>203</v>
       </c>
@@ -4910,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>204</v>
       </c>
@@ -4921,7 +4964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>205</v>
       </c>
@@ -4932,7 +4975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>206</v>
       </c>
@@ -4943,7 +4986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>207</v>
       </c>
@@ -4954,7 +4997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>208</v>
       </c>
@@ -4965,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>209</v>
       </c>
@@ -4976,7 +5019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>210</v>
       </c>
@@ -4987,7 +5030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>211</v>
       </c>
@@ -4998,7 +5041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>212</v>
       </c>
@@ -5009,7 +5052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>213</v>
       </c>
@@ -5020,7 +5063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>214</v>
       </c>
@@ -5031,7 +5074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>215</v>
       </c>
@@ -5042,7 +5085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>127</v>
       </c>
@@ -5053,7 +5096,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>216</v>
       </c>
@@ -5064,7 +5107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>217</v>
       </c>
@@ -5075,7 +5118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>218</v>
       </c>
@@ -5086,7 +5129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>47</v>
       </c>
@@ -5097,7 +5140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>219</v>
       </c>
@@ -5108,7 +5151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>75</v>
       </c>
@@ -5119,7 +5162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>85</v>
       </c>
@@ -5130,7 +5173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>220</v>
       </c>
@@ -5141,7 +5184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>221</v>
       </c>
@@ -5152,7 +5195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>222</v>
       </c>
@@ -5163,7 +5206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>223</v>
       </c>
@@ -5174,7 +5217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>224</v>
       </c>
@@ -5185,7 +5228,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>225</v>
       </c>
@@ -5196,7 +5239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>125</v>
       </c>
@@ -5207,7 +5250,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>226</v>
       </c>
@@ -5218,7 +5261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>227</v>
       </c>
@@ -5229,7 +5272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>166</v>
       </c>
@@ -5240,7 +5283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>228</v>
       </c>
@@ -5251,7 +5294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>229</v>
       </c>
@@ -5262,7 +5305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>230</v>
       </c>
@@ -5273,7 +5316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>57</v>
       </c>
@@ -5284,7 +5327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>231</v>
       </c>
@@ -5295,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>232</v>
       </c>
@@ -5306,7 +5349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>233</v>
       </c>
@@ -5317,7 +5360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>234</v>
       </c>
@@ -5328,7 +5371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>235</v>
       </c>
@@ -5339,7 +5382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>236</v>
       </c>
@@ -5350,7 +5393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>237</v>
       </c>
@@ -5361,7 +5404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>238</v>
       </c>
@@ -5372,7 +5415,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>122</v>
       </c>
@@ -5383,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>239</v>
       </c>
@@ -5394,7 +5437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>240</v>
       </c>
@@ -5405,7 +5448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>67</v>
       </c>
@@ -5416,7 +5459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>241</v>
       </c>
@@ -5427,7 +5470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>242</v>
       </c>
@@ -5438,7 +5481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>243</v>
       </c>
@@ -5449,7 +5492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>34</v>
       </c>
@@ -5460,7 +5503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>244</v>
       </c>
@@ -5471,7 +5514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>245</v>
       </c>
@@ -5482,7 +5525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>246</v>
       </c>
@@ -5493,7 +5536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>247</v>
       </c>
@@ -5504,7 +5547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>248</v>
       </c>
@@ -5515,7 +5558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>249</v>
       </c>
@@ -5526,7 +5569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>250</v>
       </c>
@@ -5537,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>251</v>
       </c>
@@ -5548,7 +5591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>252</v>
       </c>
@@ -5559,7 +5602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>253</v>
       </c>
@@ -5570,7 +5613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>254</v>
       </c>
@@ -5581,7 +5624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>255</v>
       </c>
@@ -5592,7 +5635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>256</v>
       </c>
@@ -5603,7 +5646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>257</v>
       </c>
@@ -5614,7 +5657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>258</v>
       </c>
@@ -5625,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -5636,7 +5679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>68</v>
       </c>
@@ -5647,7 +5690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>140</v>
       </c>
@@ -5658,7 +5701,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>259</v>
       </c>
@@ -5669,7 +5712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>260</v>
       </c>
@@ -5680,7 +5723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>261</v>
       </c>
@@ -5691,7 +5734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>262</v>
       </c>
@@ -5702,7 +5745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>263</v>
       </c>
@@ -5713,7 +5756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>264</v>
       </c>
@@ -5724,7 +5767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>265</v>
       </c>
@@ -5735,7 +5778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>266</v>
       </c>
@@ -5746,7 +5789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>170</v>
       </c>
@@ -5757,7 +5800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>164</v>
       </c>
@@ -5768,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>267</v>
       </c>
@@ -5779,7 +5822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>268</v>
       </c>
@@ -5790,7 +5833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>269</v>
       </c>
@@ -5801,7 +5844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>70</v>
       </c>
@@ -5812,7 +5855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>238</v>
       </c>
@@ -5823,7 +5866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>270</v>
       </c>
@@ -5834,7 +5877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>120</v>
       </c>
@@ -5845,7 +5888,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>271</v>
       </c>
@@ -5856,7 +5899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>272</v>
       </c>
@@ -5867,7 +5910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>273</v>
       </c>
@@ -5878,7 +5921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>274</v>
       </c>
@@ -5889,7 +5932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>237</v>
       </c>
@@ -5900,7 +5943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>275</v>
       </c>
@@ -5911,7 +5954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>276</v>
       </c>
@@ -5922,7 +5965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>277</v>
       </c>
@@ -5933,7 +5976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>278</v>
       </c>
@@ -5944,7 +5987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>279</v>
       </c>
@@ -5955,7 +5998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>280</v>
       </c>
@@ -5966,7 +6009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>22</v>
       </c>
@@ -5977,7 +6020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>281</v>
       </c>
@@ -5988,7 +6031,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>282</v>
       </c>
@@ -5999,7 +6042,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>283</v>
       </c>
@@ -6010,7 +6053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>284</v>
       </c>
@@ -6021,7 +6064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>44</v>
       </c>
@@ -6032,7 +6075,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>285</v>
       </c>
@@ -6043,7 +6086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>286</v>
       </c>
@@ -6054,7 +6097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>287</v>
       </c>
@@ -6065,7 +6108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>182</v>
       </c>
@@ -6076,7 +6119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>288</v>
       </c>
@@ -6087,7 +6130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>161</v>
       </c>
@@ -6098,7 +6141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>97</v>
       </c>
@@ -6109,7 +6152,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>190</v>
       </c>
@@ -6120,7 +6163,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>289</v>
       </c>
@@ -6131,7 +6174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>290</v>
       </c>
@@ -6142,7 +6185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>66</v>
       </c>
@@ -6153,7 +6196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>291</v>
       </c>
@@ -6164,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>238</v>
       </c>
@@ -6175,7 +6218,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>8</v>
       </c>
@@ -6186,7 +6229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>292</v>
       </c>
@@ -6197,7 +6240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>293</v>
       </c>
@@ -6208,7 +6251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>294</v>
       </c>
@@ -6219,7 +6262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>295</v>
       </c>
@@ -6230,7 +6273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>112</v>
       </c>
@@ -6241,7 +6284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>296</v>
       </c>
@@ -6252,7 +6295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>297</v>
       </c>
@@ -6263,7 +6306,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>288</v>
       </c>
@@ -6274,7 +6317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>112</v>
       </c>
@@ -6285,7 +6328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>298</v>
       </c>
@@ -6296,7 +6339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>299</v>
       </c>
@@ -6307,7 +6350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>300</v>
       </c>
@@ -6318,7 +6361,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>301</v>
       </c>
@@ -6329,7 +6372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>302</v>
       </c>
@@ -6340,7 +6383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>303</v>
       </c>
@@ -6351,7 +6394,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>300</v>
       </c>
@@ -6362,7 +6405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>304</v>
       </c>
@@ -6373,7 +6416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>305</v>
       </c>
@@ -6384,7 +6427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>306</v>
       </c>
@@ -6395,7 +6438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>140</v>
       </c>
@@ -6406,7 +6449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>300</v>
       </c>
@@ -6417,7 +6460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>161</v>
       </c>
@@ -6428,7 +6471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>219</v>
       </c>
@@ -6439,7 +6482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>307</v>
       </c>
@@ -6450,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>15</v>
       </c>
@@ -6461,7 +6504,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>125</v>
       </c>
@@ -6472,7 +6515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>308</v>
       </c>
@@ -6483,7 +6526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>22</v>
       </c>
@@ -6494,7 +6537,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>64</v>
       </c>
@@ -6505,7 +6548,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>309</v>
       </c>
@@ -6516,7 +6559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>207</v>
       </c>
@@ -6527,7 +6570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>310</v>
       </c>
@@ -6538,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>311</v>
       </c>
@@ -6549,7 +6592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>290</v>
       </c>
@@ -6560,7 +6603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>312</v>
       </c>
@@ -6571,7 +6614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>313</v>
       </c>
@@ -6582,7 +6625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>39</v>
       </c>
@@ -6593,7 +6636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>314</v>
       </c>
@@ -6604,7 +6647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>315</v>
       </c>
@@ -6615,7 +6658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>18</v>
       </c>
@@ -6626,7 +6669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>312</v>
       </c>
@@ -6637,7 +6680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>290</v>
       </c>
@@ -6648,7 +6691,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>316</v>
       </c>
@@ -6659,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>317</v>
       </c>
@@ -6670,7 +6713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>141</v>
       </c>
@@ -6681,7 +6724,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>253</v>
       </c>
@@ -6692,7 +6735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>282</v>
       </c>
@@ -6703,7 +6746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>318</v>
       </c>
@@ -6714,7 +6757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>319</v>
       </c>
@@ -6725,7 +6768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>300</v>
       </c>
@@ -6736,7 +6779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>253</v>
       </c>
@@ -6747,7 +6790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>320</v>
       </c>
@@ -6758,7 +6801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>321</v>
       </c>
@@ -6769,7 +6812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>322</v>
       </c>
@@ -6780,7 +6823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>323</v>
       </c>
@@ -6791,7 +6834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -6802,7 +6845,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>324</v>
       </c>
@@ -6813,7 +6856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>283</v>
       </c>
@@ -6824,7 +6867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>325</v>
       </c>
@@ -6835,7 +6878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>326</v>
       </c>
@@ -6846,7 +6889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>268</v>
       </c>
@@ -6857,7 +6900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>327</v>
       </c>
@@ -6868,7 +6911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>328</v>
       </c>
@@ -6879,7 +6922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>329</v>
       </c>
@@ -6890,7 +6933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>330</v>
       </c>
@@ -6901,7 +6944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>331</v>
       </c>
@@ -6912,7 +6955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>332</v>
       </c>
@@ -6923,7 +6966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>333</v>
       </c>
@@ -6934,7 +6977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>334</v>
       </c>
@@ -6945,7 +6988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>49</v>
       </c>
@@ -6956,7 +6999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>335</v>
       </c>
@@ -6967,7 +7010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>336</v>
       </c>
@@ -6978,7 +7021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>337</v>
       </c>
@@ -6989,7 +7032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>338</v>
       </c>
@@ -7000,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>339</v>
       </c>
@@ -7011,7 +7054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>340</v>
       </c>
@@ -7022,7 +7065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>3</v>
       </c>
@@ -7033,7 +7076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>172</v>
       </c>
@@ -7044,7 +7087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>341</v>
       </c>
@@ -7055,7 +7098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>342</v>
       </c>
@@ -7066,7 +7109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>343</v>
       </c>
@@ -7077,7 +7120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>344</v>
       </c>
@@ -7088,7 +7131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>345</v>
       </c>
@@ -7099,7 +7142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>260</v>
       </c>
@@ -7110,7 +7153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>346</v>
       </c>
@@ -7121,7 +7164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>347</v>
       </c>
@@ -7132,7 +7175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>348</v>
       </c>
@@ -7143,7 +7186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>2</v>
       </c>
@@ -7154,7 +7197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>349</v>
       </c>
@@ -7165,7 +7208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>350</v>
       </c>
@@ -7176,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>64</v>
       </c>
@@ -7187,7 +7230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>351</v>
       </c>
@@ -7198,7 +7241,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>352</v>
       </c>
@@ -7209,7 +7252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>353</v>
       </c>
@@ -7220,7 +7263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>354</v>
       </c>
@@ -7231,7 +7274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>355</v>
       </c>
@@ -7242,7 +7285,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>356</v>
       </c>
@@ -7253,7 +7296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>357</v>
       </c>
@@ -7264,7 +7307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>358</v>
       </c>
@@ -7275,7 +7318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>359</v>
       </c>
@@ -7286,7 +7329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>85</v>
       </c>
@@ -7297,7 +7340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>360</v>
       </c>
@@ -7308,7 +7351,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>34</v>
       </c>
@@ -7319,7 +7362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>361</v>
       </c>
@@ -7330,7 +7373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>362</v>
       </c>
@@ -7341,7 +7384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>86</v>
       </c>
@@ -7352,7 +7395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>363</v>
       </c>
@@ -7363,7 +7406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>108</v>
       </c>
@@ -7374,7 +7417,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>364</v>
       </c>
@@ -7385,7 +7428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>227</v>
       </c>
@@ -7396,7 +7439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>74</v>
       </c>
@@ -7407,7 +7450,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>238</v>
       </c>
@@ -7418,7 +7461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>365</v>
       </c>
@@ -7429,7 +7472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>193</v>
       </c>
@@ -7440,7 +7483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>366</v>
       </c>
@@ -7451,7 +7494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>367</v>
       </c>
@@ -7462,7 +7505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>368</v>
       </c>
@@ -7473,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>369</v>
       </c>
@@ -7484,7 +7527,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>370</v>
       </c>
@@ -7495,7 +7538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>371</v>
       </c>
@@ -7506,7 +7549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>106</v>
       </c>
@@ -7517,7 +7560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>141</v>
       </c>
@@ -7528,7 +7571,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>107</v>
       </c>
@@ -7539,7 +7582,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>131</v>
       </c>
@@ -7550,7 +7593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>372</v>
       </c>
@@ -7561,7 +7604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>373</v>
       </c>
@@ -7572,7 +7615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>374</v>
       </c>
@@ -7583,7 +7626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>375</v>
       </c>
@@ -7594,7 +7637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>376</v>
       </c>
@@ -7605,7 +7648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>377</v>
       </c>
@@ -7616,7 +7659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>131</v>
       </c>
@@ -7627,7 +7670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>378</v>
       </c>
@@ -7638,7 +7681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>243</v>
       </c>
@@ -7649,7 +7692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>73</v>
       </c>
@@ -7660,7 +7703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>214</v>
       </c>
@@ -7671,7 +7714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>86</v>
       </c>
@@ -7682,7 +7725,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>40</v>
       </c>
@@ -7693,7 +7736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>245</v>
       </c>
@@ -7704,7 +7747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>271</v>
       </c>
@@ -7715,7 +7758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>379</v>
       </c>
@@ -7726,7 +7769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>380</v>
       </c>
@@ -7737,7 +7780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>161</v>
       </c>
@@ -7748,7 +7791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>381</v>
       </c>
@@ -7759,7 +7802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>382</v>
       </c>
@@ -7770,7 +7813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>65</v>
       </c>
@@ -7781,7 +7824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>383</v>
       </c>
@@ -7792,7 +7835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>34</v>
       </c>
@@ -7803,7 +7846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>384</v>
       </c>
@@ -7814,7 +7857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>122</v>
       </c>
@@ -7825,7 +7868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>385</v>
       </c>
@@ -7836,7 +7879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>386</v>
       </c>
@@ -7847,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>387</v>
       </c>
@@ -7858,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>388</v>
       </c>
@@ -7869,7 +7912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>268</v>
       </c>
@@ -7880,7 +7923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>256</v>
       </c>
@@ -7891,7 +7934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>389</v>
       </c>
@@ -7902,7 +7945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>390</v>
       </c>
@@ -7913,7 +7956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>391</v>
       </c>
@@ -7924,7 +7967,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>391</v>
       </c>
@@ -7935,7 +7978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>392</v>
       </c>
@@ -7946,7 +7989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>393</v>
       </c>
@@ -7957,7 +8000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>394</v>
       </c>
@@ -7968,7 +8011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>395</v>
       </c>
@@ -7979,7 +8022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>107</v>
       </c>
@@ -7990,7 +8033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>237</v>
       </c>
@@ -8001,7 +8044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>396</v>
       </c>
@@ -8012,7 +8055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>397</v>
       </c>
@@ -8023,7 +8066,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>398</v>
       </c>
@@ -8034,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>193</v>
       </c>
@@ -8045,7 +8088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>288</v>
       </c>
@@ -8056,7 +8099,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>99</v>
       </c>
@@ -8067,7 +8110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>399</v>
       </c>
@@ -8078,7 +8121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>400</v>
       </c>
@@ -8089,7 +8132,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>401</v>
       </c>
@@ -8100,7 +8143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>203</v>
       </c>
@@ -8111,7 +8154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>402</v>
       </c>
@@ -8122,7 +8165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>31</v>
       </c>
@@ -8133,7 +8176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>403</v>
       </c>
@@ -8144,7 +8187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>43</v>
       </c>
@@ -8155,7 +8198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>404</v>
       </c>
@@ -8166,7 +8209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>405</v>
       </c>
@@ -8177,7 +8220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>70</v>
       </c>
@@ -8188,7 +8231,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>33</v>
       </c>
@@ -8199,7 +8242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>300</v>
       </c>
@@ -8210,7 +8253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>406</v>
       </c>
@@ -8221,7 +8264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>112</v>
       </c>
@@ -8232,7 +8275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>400</v>
       </c>
@@ -8243,7 +8286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>40</v>
       </c>
@@ -8254,7 +8297,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>407</v>
       </c>
@@ -8265,7 +8308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>408</v>
       </c>
@@ -8276,7 +8319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>409</v>
       </c>
@@ -8287,7 +8330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>268</v>
       </c>
@@ -8298,7 +8341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>410</v>
       </c>
@@ -8309,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>411</v>
       </c>
@@ -8320,7 +8363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>412</v>
       </c>
@@ -8331,7 +8374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>413</v>
       </c>
@@ -8342,7 +8385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>414</v>
       </c>
@@ -8353,7 +8396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>415</v>
       </c>
@@ -8364,7 +8407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>2</v>
       </c>
@@ -8375,7 +8418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>416</v>
       </c>
@@ -8386,7 +8429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>55</v>
       </c>
@@ -8397,7 +8440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>417</v>
       </c>
@@ -8408,7 +8451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>418</v>
       </c>
@@ -8419,7 +8462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>419</v>
       </c>
@@ -8430,7 +8473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>420</v>
       </c>
@@ -8441,7 +8484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>421</v>
       </c>
@@ -8452,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>422</v>
       </c>
@@ -8463,7 +8506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>256</v>
       </c>
@@ -8474,7 +8517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>74</v>
       </c>
@@ -8485,7 +8528,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>423</v>
       </c>
@@ -8496,7 +8539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>243</v>
       </c>
@@ -8507,7 +8550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>148</v>
       </c>
@@ -8518,7 +8561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>424</v>
       </c>
@@ -8529,7 +8572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>425</v>
       </c>
@@ -8540,7 +8583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>426</v>
       </c>
@@ -8551,7 +8594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>427</v>
       </c>
@@ -8562,7 +8605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>428</v>
       </c>
@@ -8573,7 +8616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>375</v>
       </c>
@@ -8584,7 +8627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>65</v>
       </c>
@@ -8595,7 +8638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>18</v>
       </c>
@@ -8606,7 +8649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>429</v>
       </c>
@@ -8617,7 +8660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>430</v>
       </c>
@@ -8628,7 +8671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>431</v>
       </c>
@@ -8639,7 +8682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>432</v>
       </c>
@@ -8650,7 +8693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>433</v>
       </c>
@@ -8661,7 +8704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>434</v>
       </c>
@@ -8672,7 +8715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>435</v>
       </c>
@@ -8683,7 +8726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>436</v>
       </c>
@@ -8694,7 +8737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>437</v>
       </c>
@@ -8705,7 +8748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>438</v>
       </c>
@@ -8716,7 +8759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>439</v>
       </c>
@@ -8727,7 +8770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>440</v>
       </c>
@@ -8738,7 +8781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>66</v>
       </c>
@@ -8749,7 +8792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>441</v>
       </c>
@@ -8760,7 +8803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>442</v>
       </c>
@@ -8771,7 +8814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>268</v>
       </c>
@@ -8782,7 +8825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>297</v>
       </c>
@@ -8793,7 +8836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>161</v>
       </c>
@@ -8804,7 +8847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>443</v>
       </c>
@@ -8815,7 +8858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>444</v>
       </c>
@@ -8826,7 +8869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>445</v>
       </c>
@@ -8837,7 +8880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>446</v>
       </c>
@@ -8848,7 +8891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>447</v>
       </c>
@@ -8859,7 +8902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>228</v>
       </c>
@@ -8870,7 +8913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>448</v>
       </c>
@@ -8881,7 +8924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>297</v>
       </c>
@@ -8892,7 +8935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>449</v>
       </c>
@@ -8903,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>450</v>
       </c>
@@ -8914,7 +8957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>451</v>
       </c>
@@ -8925,7 +8968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>452</v>
       </c>
@@ -8936,7 +8979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>453</v>
       </c>
@@ -8947,7 +8990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>47</v>
       </c>
@@ -8958,7 +9001,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>454</v>
       </c>
@@ -8969,7 +9012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>54</v>
       </c>
@@ -8987,14 +9030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>455</v>
       </c>
